--- a/IA.xlsx
+++ b/IA.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24FF51A8-DD38-4056-8FBC-49CBE9408888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="14400" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$1501</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -51,13 +50,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -72,16 +77,353 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -224,9 +566,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -259,17 +843,61 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Coma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9"/>
+    <cellStyle name="Nota" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de advertencia" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Salida" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="19" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="22" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Énfasis1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Énfasis1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Énfasis1" xfId="28" builtinId="32"/>
+    <cellStyle name="Énfasis2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="36" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="40" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Énfasis5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Énfasis5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Énfasis5" xfId="44" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Énfasis6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -318,7 +946,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -351,26 +979,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -403,23 +1014,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -581,30 +1175,25 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A839" workbookViewId="0">
-      <selection activeCell="C384" sqref="C384"/>
+    <sheetView tabSelected="1" topLeftCell="A980" workbookViewId="0">
+      <selection activeCell="C988" sqref="C988"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.28703703703704" customWidth="1"/>
+    <col min="2" max="2" width="20.712962962963" customWidth="1"/>
+    <col min="3" max="3" width="24.287037037037" customWidth="1"/>
+    <col min="4" max="4" width="22.4259259259259" customWidth="1"/>
+    <col min="5" max="5" width="14.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -17624,8507 +18213,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1002" spans="1:5">
-      <c r="A1002" s="10">
-        <v>45</v>
-      </c>
-      <c r="B1002" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1002" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1002" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1002" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:5">
-      <c r="A1003" s="10">
-        <v>41</v>
-      </c>
-      <c r="B1003" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1003" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1003" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1003" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:5">
-      <c r="A1004" s="10">
-        <v>24</v>
-      </c>
-      <c r="B1004" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1004" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1004" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1004" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:5">
-      <c r="A1005" s="10">
-        <v>16</v>
-      </c>
-      <c r="B1005" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1005" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1005" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1005" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:5">
-      <c r="A1006" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1006" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1006" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1006" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1006" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:5">
-      <c r="A1007" s="10">
-        <v>31</v>
-      </c>
-      <c r="B1007" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1007" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1007" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1007" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:5">
-      <c r="A1008" s="10">
-        <v>22</v>
-      </c>
-      <c r="B1008" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1008" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1008" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1008" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:5">
-      <c r="A1009" s="10">
-        <v>15</v>
-      </c>
-      <c r="B1009" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1009" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1009" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1009" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:5">
-      <c r="A1010" s="10">
-        <v>23</v>
-      </c>
-      <c r="B1010" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1010" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1010" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1010" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:5">
-      <c r="A1011" s="10">
-        <v>25</v>
-      </c>
-      <c r="B1011" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1011" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1011" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1011" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:5">
-      <c r="A1012" s="10">
-        <v>36</v>
-      </c>
-      <c r="B1012" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1012" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1012" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1012" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:5">
-      <c r="A1013" s="10">
-        <v>30</v>
-      </c>
-      <c r="B1013" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1013" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1013" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1013" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:5">
-      <c r="A1014" s="10">
-        <v>21</v>
-      </c>
-      <c r="B1014" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1014" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1014" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1014" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:5">
-      <c r="A1015" s="10">
-        <v>43</v>
-      </c>
-      <c r="B1015" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1015" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1015" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1015" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:5">
-      <c r="A1016" s="10">
-        <v>24</v>
-      </c>
-      <c r="B1016" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1016" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1016" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1016" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:5">
-      <c r="A1017" s="10">
-        <v>37</v>
-      </c>
-      <c r="B1017" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1017" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1017" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1017" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:5">
-      <c r="A1018" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1018" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1018" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1018" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1018" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:5">
-      <c r="A1019" s="10">
-        <v>17</v>
-      </c>
-      <c r="B1019" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1019" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1019" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1019" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:5">
-      <c r="A1020" s="10">
-        <v>32</v>
-      </c>
-      <c r="B1020" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1020" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1020" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1020" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:5">
-      <c r="A1021" s="10">
-        <v>39</v>
-      </c>
-      <c r="B1021" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1021" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1021" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1021" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:5">
-      <c r="A1022" s="10">
-        <v>38</v>
-      </c>
-      <c r="B1022" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1022" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1022" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1022" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:5">
-      <c r="A1023" s="10">
-        <v>27</v>
-      </c>
-      <c r="B1023" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1023" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1023" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1023" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:5">
-      <c r="A1024" s="10">
-        <v>42</v>
-      </c>
-      <c r="B1024" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1024" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1024" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1024" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:5">
-      <c r="A1025" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1025" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1025" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1025" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1025" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:5">
-      <c r="A1026" s="10">
-        <v>21</v>
-      </c>
-      <c r="B1026" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1026" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1026" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1026" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:5">
-      <c r="A1027" s="10">
-        <v>39</v>
-      </c>
-      <c r="B1027" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1027" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1027" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1027" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:5">
-      <c r="A1028" s="10">
-        <v>18</v>
-      </c>
-      <c r="B1028" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1028" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1028" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1028" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:5">
-      <c r="A1029" s="10">
-        <v>27</v>
-      </c>
-      <c r="B1029" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1029" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1029" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1029" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:5">
-      <c r="A1030" s="10">
-        <v>34</v>
-      </c>
-      <c r="B1030" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1030" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1030" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1030" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:5">
-      <c r="A1031" s="10">
-        <v>15</v>
-      </c>
-      <c r="B1031" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1031" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1031" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1031" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:5">
-      <c r="A1032" s="10">
-        <v>22</v>
-      </c>
-      <c r="B1032" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1032" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1032" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1032" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:5">
-      <c r="A1033" s="10">
-        <v>28</v>
-      </c>
-      <c r="B1033" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1033" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1033" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1033" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:5">
-      <c r="A1034" s="10">
-        <v>30</v>
-      </c>
-      <c r="B1034" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1034" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1034" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1034" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:5">
-      <c r="A1035" s="10">
-        <v>28</v>
-      </c>
-      <c r="B1035" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1035" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1035" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1035" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:5">
-      <c r="A1036" s="10">
-        <v>26</v>
-      </c>
-      <c r="B1036" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1036" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1036" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1036" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:5">
-      <c r="A1037" s="10">
-        <v>33</v>
-      </c>
-      <c r="B1037" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1037" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1037" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1037" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:5">
-      <c r="A1038" s="10">
-        <v>37</v>
-      </c>
-      <c r="B1038" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1038" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1038" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1038" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:5">
-      <c r="A1039" s="10">
-        <v>29</v>
-      </c>
-      <c r="B1039" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1039" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1039" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1039" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:5">
-      <c r="A1040" s="10">
-        <v>42</v>
-      </c>
-      <c r="B1040" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1040" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1040" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1040" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:5">
-      <c r="A1041" s="10">
-        <v>16</v>
-      </c>
-      <c r="B1041" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1041" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1041" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1041" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:5">
-      <c r="A1042" s="10">
-        <v>16</v>
-      </c>
-      <c r="B1042" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1042" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1042" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1042" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:5">
-      <c r="A1043" s="10">
-        <v>37</v>
-      </c>
-      <c r="B1043" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1043" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1043" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1043" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:5">
-      <c r="A1044" s="10">
-        <v>45</v>
-      </c>
-      <c r="B1044" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1044" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1044" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1044" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:5">
-      <c r="A1045" s="10">
-        <v>36</v>
-      </c>
-      <c r="B1045" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1045" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1045" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1045" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:5">
-      <c r="A1046" s="10">
-        <v>33</v>
-      </c>
-      <c r="B1046" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1046" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1046" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1046" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:5">
-      <c r="A1047" s="10">
-        <v>39</v>
-      </c>
-      <c r="B1047" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1047" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1047" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1047" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:5">
-      <c r="A1048" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1048" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1048" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1048" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1048" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:5">
-      <c r="A1049" s="10">
-        <v>45</v>
-      </c>
-      <c r="B1049" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1049" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1049" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1049" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:5">
-      <c r="A1050" s="10">
-        <v>44</v>
-      </c>
-      <c r="B1050" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1050" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1050" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1050" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:5">
-      <c r="A1051" s="10">
-        <v>43</v>
-      </c>
-      <c r="B1051" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1051" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1051" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1051" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:5">
-      <c r="A1052" s="10">
-        <v>36</v>
-      </c>
-      <c r="B1052" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1052" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1052" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1052" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:5">
-      <c r="A1053" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1053" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1053" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1053" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1053" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:5">
-      <c r="A1054" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1054" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1054" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1054" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1054" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:5">
-      <c r="A1055" s="10">
-        <v>36</v>
-      </c>
-      <c r="B1055" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1055" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1055" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1055" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:5">
-      <c r="A1056" s="10">
-        <v>31</v>
-      </c>
-      <c r="B1056" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1056" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1056" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1056" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:5">
-      <c r="A1057" s="10">
-        <v>34</v>
-      </c>
-      <c r="B1057" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1057" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1057" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1057" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:5">
-      <c r="A1058" s="10">
-        <v>24</v>
-      </c>
-      <c r="B1058" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1058" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1058" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1058" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:5">
-      <c r="A1059" s="10">
-        <v>20</v>
-      </c>
-      <c r="B1059" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1059" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1059" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1059" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:5">
-      <c r="A1060" s="10">
-        <v>29</v>
-      </c>
-      <c r="B1060" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1060" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1060" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1060" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:5">
-      <c r="A1061" s="10">
-        <v>36</v>
-      </c>
-      <c r="B1061" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1061" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1061" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1061" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:5">
-      <c r="A1062" s="10">
-        <v>25</v>
-      </c>
-      <c r="B1062" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1062" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1062" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1062" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:5">
-      <c r="A1063" s="10">
-        <v>42</v>
-      </c>
-      <c r="B1063" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1063" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1063" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1063" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:5">
-      <c r="A1064" s="10">
-        <v>19</v>
-      </c>
-      <c r="B1064" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1064" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1064" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1064" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:5">
-      <c r="A1065" s="10">
-        <v>15</v>
-      </c>
-      <c r="B1065" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1065" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1065" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1065" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:5">
-      <c r="A1066" s="10">
-        <v>22</v>
-      </c>
-      <c r="B1066" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1066" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1066" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1066" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:5">
-      <c r="A1067" s="10">
-        <v>35</v>
-      </c>
-      <c r="B1067" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1067" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1067" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1067" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:5">
-      <c r="A1068" s="10">
-        <v>42</v>
-      </c>
-      <c r="B1068" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1068" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1068" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1068" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:5">
-      <c r="A1069" s="10">
-        <v>26</v>
-      </c>
-      <c r="B1069" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1069" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1069" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1069" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:5">
-      <c r="A1070" s="10">
-        <v>26</v>
-      </c>
-      <c r="B1070" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1070" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1070" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1070" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:5">
-      <c r="A1071" s="10">
-        <v>19</v>
-      </c>
-      <c r="B1071" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1071" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1071" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1071" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:5">
-      <c r="A1072" s="10">
-        <v>21</v>
-      </c>
-      <c r="B1072" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1072" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1072" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1072" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:5">
-      <c r="A1073" s="10">
-        <v>18</v>
-      </c>
-      <c r="B1073" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1073" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1073" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1073" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:5">
-      <c r="A1074" s="10">
-        <v>20</v>
-      </c>
-      <c r="B1074" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1074" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1074" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1074" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:5">
-      <c r="A1075" s="10">
-        <v>27</v>
-      </c>
-      <c r="B1075" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1075" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1075" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1075" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:5">
-      <c r="A1076" s="10">
-        <v>34</v>
-      </c>
-      <c r="B1076" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1076" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1076" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1076" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:5">
-      <c r="A1077" s="10">
-        <v>44</v>
-      </c>
-      <c r="B1077" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1077" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1077" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1077" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:5">
-      <c r="A1078" s="10">
-        <v>29</v>
-      </c>
-      <c r="B1078" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1078" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1078" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1078" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:5">
-      <c r="A1079" s="10">
-        <v>17</v>
-      </c>
-      <c r="B1079" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1079" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1079" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1079" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:5">
-      <c r="A1080" s="10">
-        <v>37</v>
-      </c>
-      <c r="B1080" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1080" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1080" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1080" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:5">
-      <c r="A1081" s="10">
-        <v>22</v>
-      </c>
-      <c r="B1081" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1081" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1081" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1081" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:5">
-      <c r="A1082" s="10">
-        <v>34</v>
-      </c>
-      <c r="B1082" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1082" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1082" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1082" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:5">
-      <c r="A1083" s="10">
-        <v>30</v>
-      </c>
-      <c r="B1083" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1083" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1083" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1083" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:5">
-      <c r="A1084" s="10">
-        <v>27</v>
-      </c>
-      <c r="B1084" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1084" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1084" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1084" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:5">
-      <c r="A1085" s="10">
-        <v>32</v>
-      </c>
-      <c r="B1085" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1085" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1085" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1085" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:5">
-      <c r="A1086" s="10">
-        <v>42</v>
-      </c>
-      <c r="B1086" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1086" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1086" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1086" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:5">
-      <c r="A1087" s="10">
-        <v>24</v>
-      </c>
-      <c r="B1087" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1087" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1087" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1087" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:5">
-      <c r="A1088" s="10">
-        <v>44</v>
-      </c>
-      <c r="B1088" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1088" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1088" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1088" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:5">
-      <c r="A1089" s="10">
-        <v>33</v>
-      </c>
-      <c r="B1089" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1089" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1089" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1089" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:5">
-      <c r="A1090" s="10">
-        <v>31</v>
-      </c>
-      <c r="B1090" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1090" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1090" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1090" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1091" spans="1:5">
-      <c r="A1091" s="10">
-        <v>38</v>
-      </c>
-      <c r="B1091" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1091" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1091" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1091" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:5">
-      <c r="A1092" s="10">
-        <v>45</v>
-      </c>
-      <c r="B1092" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1092" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1092" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1092" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:5">
-      <c r="A1093" s="10">
-        <v>33</v>
-      </c>
-      <c r="B1093" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1093" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1093" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1093" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:5">
-      <c r="A1094" s="10">
-        <v>42</v>
-      </c>
-      <c r="B1094" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1094" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1094" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1094" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:5">
-      <c r="A1095" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1095" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1095" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1095" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1095" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1096" spans="1:5">
-      <c r="A1096" s="10">
-        <v>37</v>
-      </c>
-      <c r="B1096" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1096" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1096" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1096" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1097" spans="1:5">
-      <c r="A1097" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1097" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1097" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1097" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1097" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1098" spans="1:5">
-      <c r="A1098" s="10">
-        <v>19</v>
-      </c>
-      <c r="B1098" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1098" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1098" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1098" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1099" spans="1:5">
-      <c r="A1099" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1099" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1099" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1099" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1099" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1100" spans="1:5">
-      <c r="A1100" s="10">
-        <v>35</v>
-      </c>
-      <c r="B1100" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1100" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1100" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1100" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1101" spans="1:5">
-      <c r="A1101" s="10">
-        <v>44</v>
-      </c>
-      <c r="B1101" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1101" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1101" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1101" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1102" spans="1:5">
-      <c r="A1102" s="10">
-        <v>37</v>
-      </c>
-      <c r="B1102" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1102" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1102" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1102" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:5">
-      <c r="A1103" s="10">
-        <v>45</v>
-      </c>
-      <c r="B1103" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1103" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1103" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1103" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:5">
-      <c r="A1104" s="10">
-        <v>23</v>
-      </c>
-      <c r="B1104" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1104" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1104" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1104" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1105" spans="1:5">
-      <c r="A1105" s="10">
-        <v>26</v>
-      </c>
-      <c r="B1105" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1105" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1105" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1105" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:5">
-      <c r="A1106" s="10">
-        <v>35</v>
-      </c>
-      <c r="B1106" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1106" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1106" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1106" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:5">
-      <c r="A1107" s="10">
-        <v>15</v>
-      </c>
-      <c r="B1107" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1107" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1107" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1107" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:5">
-      <c r="A1108" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1108" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1108" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1108" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1108" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:5">
-      <c r="A1109" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1109" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1109" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1109" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1109" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:5">
-      <c r="A1110" s="10">
-        <v>15</v>
-      </c>
-      <c r="B1110" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1110" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1110" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1110" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:5">
-      <c r="A1111" s="10">
-        <v>29</v>
-      </c>
-      <c r="B1111" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1111" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1111" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1111" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:5">
-      <c r="A1112" s="10">
-        <v>16</v>
-      </c>
-      <c r="B1112" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1112" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1112" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1112" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:5">
-      <c r="A1113" s="10">
-        <v>44</v>
-      </c>
-      <c r="B1113" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1113" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1113" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1113" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:5">
-      <c r="A1114" s="10">
-        <v>36</v>
-      </c>
-      <c r="B1114" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1114" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1114" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1114" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:5">
-      <c r="A1115" s="10">
-        <v>30</v>
-      </c>
-      <c r="B1115" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1115" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1115" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1115" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:5">
-      <c r="A1116" s="10">
-        <v>39</v>
-      </c>
-      <c r="B1116" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1116" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1116" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1116" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:5">
-      <c r="A1117" s="10">
-        <v>22</v>
-      </c>
-      <c r="B1117" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1117" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1117" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1117" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:5">
-      <c r="A1118" s="10">
-        <v>27</v>
-      </c>
-      <c r="B1118" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1118" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1118" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1118" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:5">
-      <c r="A1119" s="10">
-        <v>35</v>
-      </c>
-      <c r="B1119" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1119" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1119" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1119" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:5">
-      <c r="A1120" s="10">
-        <v>15</v>
-      </c>
-      <c r="B1120" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1120" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1120" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1120" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:5">
-      <c r="A1121" s="10">
-        <v>30</v>
-      </c>
-      <c r="B1121" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1121" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1121" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1121" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:5">
-      <c r="A1122" s="10">
-        <v>43</v>
-      </c>
-      <c r="B1122" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1122" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1122" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1122" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:5">
-      <c r="A1123" s="10">
-        <v>21</v>
-      </c>
-      <c r="B1123" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1123" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1123" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1123" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:5">
-      <c r="A1124" s="10">
-        <v>45</v>
-      </c>
-      <c r="B1124" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1124" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1124" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1124" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:5">
-      <c r="A1125" s="10">
-        <v>19</v>
-      </c>
-      <c r="B1125" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1125" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1125" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1125" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:5">
-      <c r="A1126" s="10">
-        <v>36</v>
-      </c>
-      <c r="B1126" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1126" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1126" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1126" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:5">
-      <c r="A1127" s="10">
-        <v>43</v>
-      </c>
-      <c r="B1127" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1127" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1127" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1127" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:5">
-      <c r="A1128" s="10">
-        <v>37</v>
-      </c>
-      <c r="B1128" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1128" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1128" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1128" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:5">
-      <c r="A1129" s="10">
-        <v>17</v>
-      </c>
-      <c r="B1129" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1129" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1129" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1129" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:5">
-      <c r="A1130" s="10">
-        <v>26</v>
-      </c>
-      <c r="B1130" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1130" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1130" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1130" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:5">
-      <c r="A1131" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1131" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1131" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1131" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1131" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1132" spans="1:5">
-      <c r="A1132" s="10">
-        <v>30</v>
-      </c>
-      <c r="B1132" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1132" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1132" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1132" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1133" spans="1:5">
-      <c r="A1133" s="10">
-        <v>33</v>
-      </c>
-      <c r="B1133" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1133" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1133" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1133" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:5">
-      <c r="A1134" s="10">
-        <v>19</v>
-      </c>
-      <c r="B1134" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1134" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1134" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1134" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:5">
-      <c r="A1135" s="10">
-        <v>36</v>
-      </c>
-      <c r="B1135" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1135" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1135" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1135" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1136" spans="1:5">
-      <c r="A1136" s="10">
-        <v>39</v>
-      </c>
-      <c r="B1136" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1136" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1136" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1136" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:5">
-      <c r="A1137" s="10">
-        <v>43</v>
-      </c>
-      <c r="B1137" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1137" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1137" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1137" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1138" spans="1:5">
-      <c r="A1138" s="10">
-        <v>28</v>
-      </c>
-      <c r="B1138" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1138" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1138" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1138" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1139" spans="1:5">
-      <c r="A1139" s="10">
-        <v>42</v>
-      </c>
-      <c r="B1139" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1139" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1139" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1139" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1140" spans="1:5">
-      <c r="A1140" s="10">
-        <v>19</v>
-      </c>
-      <c r="B1140" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1140" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1140" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1140" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:5">
-      <c r="A1141" s="10">
-        <v>29</v>
-      </c>
-      <c r="B1141" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1141" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1141" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1141" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1142" spans="1:5">
-      <c r="A1142" s="10">
-        <v>31</v>
-      </c>
-      <c r="B1142" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1142" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1142" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1142" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:5">
-      <c r="A1143" s="10">
-        <v>44</v>
-      </c>
-      <c r="B1143" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1143" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1143" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1143" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1144" spans="1:5">
-      <c r="A1144" s="10">
-        <v>28</v>
-      </c>
-      <c r="B1144" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1144" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1144" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1144" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1145" spans="1:5">
-      <c r="A1145" s="10">
-        <v>44</v>
-      </c>
-      <c r="B1145" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1145" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1145" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1145" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:5">
-      <c r="A1146" s="10">
-        <v>34</v>
-      </c>
-      <c r="B1146" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1146" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1146" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1146" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1147" spans="1:5">
-      <c r="A1147" s="10">
-        <v>19</v>
-      </c>
-      <c r="B1147" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1147" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1147" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1147" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1148" spans="1:5">
-      <c r="A1148" s="10">
-        <v>26</v>
-      </c>
-      <c r="B1148" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1148" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1148" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1148" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1149" spans="1:5">
-      <c r="A1149" s="10">
-        <v>30</v>
-      </c>
-      <c r="B1149" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1149" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1149" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1149" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1150" spans="1:5">
-      <c r="A1150" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1150" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1150" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1150" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1150" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1151" spans="1:5">
-      <c r="A1151" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1151" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1151" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1151" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1151" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1152" spans="1:5">
-      <c r="A1152" s="10">
-        <v>30</v>
-      </c>
-      <c r="B1152" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1152" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1152" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1152" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1153" spans="1:5">
-      <c r="A1153" s="10">
-        <v>35</v>
-      </c>
-      <c r="B1153" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1153" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1153" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1153" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1154" spans="1:5">
-      <c r="A1154" s="10">
-        <v>21</v>
-      </c>
-      <c r="B1154" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1154" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1154" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1154" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1155" spans="1:5">
-      <c r="A1155" s="10">
-        <v>18</v>
-      </c>
-      <c r="B1155" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1155" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1155" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1155" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1156" spans="1:5">
-      <c r="A1156" s="10">
-        <v>15</v>
-      </c>
-      <c r="B1156" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1156" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1156" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1156" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1157" spans="1:5">
-      <c r="A1157" s="10">
-        <v>44</v>
-      </c>
-      <c r="B1157" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1157" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1157" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1157" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1158" spans="1:5">
-      <c r="A1158" s="10">
-        <v>44</v>
-      </c>
-      <c r="B1158" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1158" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1158" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1158" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1159" spans="1:5">
-      <c r="A1159" s="10">
-        <v>19</v>
-      </c>
-      <c r="B1159" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1159" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1159" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1159" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1160" spans="1:5">
-      <c r="A1160" s="10">
-        <v>37</v>
-      </c>
-      <c r="B1160" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1160" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1160" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1160" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1161" spans="1:5">
-      <c r="A1161" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1161" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1161" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1161" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1161" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1162" spans="1:5">
-      <c r="A1162" s="10">
-        <v>24</v>
-      </c>
-      <c r="B1162" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1162" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1162" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1162" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1163" spans="1:5">
-      <c r="A1163" s="10">
-        <v>36</v>
-      </c>
-      <c r="B1163" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1163" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1163" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1163" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1164" spans="1:5">
-      <c r="A1164" s="10">
-        <v>19</v>
-      </c>
-      <c r="B1164" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1164" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1164" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1164" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1165" spans="1:5">
-      <c r="A1165" s="10">
-        <v>18</v>
-      </c>
-      <c r="B1165" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1165" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1165" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1165" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1166" spans="1:5">
-      <c r="A1166" s="10">
-        <v>16</v>
-      </c>
-      <c r="B1166" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1166" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1166" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1166" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1167" spans="1:5">
-      <c r="A1167" s="10">
-        <v>34</v>
-      </c>
-      <c r="B1167" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1167" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1167" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1167" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1168" spans="1:5">
-      <c r="A1168" s="10">
-        <v>45</v>
-      </c>
-      <c r="B1168" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1168" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1168" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1168" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1169" spans="1:5">
-      <c r="A1169" s="10">
-        <v>24</v>
-      </c>
-      <c r="B1169" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1169" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1169" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1169" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1170" spans="1:5">
-      <c r="A1170" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1170" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1170" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1170" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1170" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1171" spans="1:5">
-      <c r="A1171" s="10">
-        <v>33</v>
-      </c>
-      <c r="B1171" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1171" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1171" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1171" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1172" spans="1:5">
-      <c r="A1172" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1172" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1172" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1172" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1172" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:5">
-      <c r="A1173" s="10">
-        <v>15</v>
-      </c>
-      <c r="B1173" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1173" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1173" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1173" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:5">
-      <c r="A1174" s="10">
-        <v>38</v>
-      </c>
-      <c r="B1174" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1174" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1174" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1174" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1175" spans="1:5">
-      <c r="A1175" s="10">
-        <v>19</v>
-      </c>
-      <c r="B1175" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1175" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1175" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1175" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1176" spans="1:5">
-      <c r="A1176" s="10">
-        <v>27</v>
-      </c>
-      <c r="B1176" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1176" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1176" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1176" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:5">
-      <c r="A1177" s="10">
-        <v>18</v>
-      </c>
-      <c r="B1177" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1177" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1177" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1177" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:5">
-      <c r="A1178" s="10">
-        <v>30</v>
-      </c>
-      <c r="B1178" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1178" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1178" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1178" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1179" spans="1:5">
-      <c r="A1179" s="10">
-        <v>38</v>
-      </c>
-      <c r="B1179" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1179" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1179" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1179" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:5">
-      <c r="A1180" s="10">
-        <v>30</v>
-      </c>
-      <c r="B1180" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1180" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1180" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1180" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:5">
-      <c r="A1181" s="10">
-        <v>37</v>
-      </c>
-      <c r="B1181" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1181" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1181" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1181" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:5">
-      <c r="A1182" s="10">
-        <v>16</v>
-      </c>
-      <c r="B1182" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1182" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1182" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1182" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1183" spans="1:5">
-      <c r="A1183" s="10">
-        <v>31</v>
-      </c>
-      <c r="B1183" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1183" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1183" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1183" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:5">
-      <c r="A1184" s="10">
-        <v>42</v>
-      </c>
-      <c r="B1184" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1184" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1184" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1184" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1185" spans="1:5">
-      <c r="A1185" s="10">
-        <v>41</v>
-      </c>
-      <c r="B1185" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1185" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1185" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1185" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1186" spans="1:5">
-      <c r="A1186" s="10">
-        <v>34</v>
-      </c>
-      <c r="B1186" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1186" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1186" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1186" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1187" spans="1:5">
-      <c r="A1187" s="10">
-        <v>38</v>
-      </c>
-      <c r="B1187" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1187" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1187" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1187" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1188" spans="1:5">
-      <c r="A1188" s="10">
-        <v>26</v>
-      </c>
-      <c r="B1188" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1188" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1188" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1188" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:5">
-      <c r="A1189" s="10">
-        <v>32</v>
-      </c>
-      <c r="B1189" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1189" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1189" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1189" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1190" spans="1:5">
-      <c r="A1190" s="10">
-        <v>17</v>
-      </c>
-      <c r="B1190" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1190" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1190" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1190" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:5">
-      <c r="A1191" s="10">
-        <v>42</v>
-      </c>
-      <c r="B1191" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1191" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1191" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1191" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1192" spans="1:5">
-      <c r="A1192" s="10">
-        <v>15</v>
-      </c>
-      <c r="B1192" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1192" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1192" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1192" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1193" spans="1:5">
-      <c r="A1193" s="10">
-        <v>15</v>
-      </c>
-      <c r="B1193" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1193" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1193" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1193" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1194" spans="1:5">
-      <c r="A1194" s="10">
-        <v>43</v>
-      </c>
-      <c r="B1194" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1194" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1194" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1194" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1195" spans="1:5">
-      <c r="A1195" s="10">
-        <v>33</v>
-      </c>
-      <c r="B1195" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1195" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1195" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1195" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1196" spans="1:5">
-      <c r="A1196" s="10">
-        <v>25</v>
-      </c>
-      <c r="B1196" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1196" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1196" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1196" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:5">
-      <c r="A1197" s="10">
-        <v>19</v>
-      </c>
-      <c r="B1197" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1197" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1197" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1197" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1198" spans="1:5">
-      <c r="A1198" s="10">
-        <v>26</v>
-      </c>
-      <c r="B1198" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1198" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1198" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1198" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1199" spans="1:5">
-      <c r="A1199" s="10">
-        <v>17</v>
-      </c>
-      <c r="B1199" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1199" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1199" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1199" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1200" spans="1:5">
-      <c r="A1200" s="10">
-        <v>15</v>
-      </c>
-      <c r="B1200" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1200" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1200" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1200" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1201" spans="1:5">
-      <c r="A1201" s="10">
-        <v>15</v>
-      </c>
-      <c r="B1201" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1201" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1201" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1201" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1202" spans="1:5">
-      <c r="A1202" s="10">
-        <v>22</v>
-      </c>
-      <c r="B1202" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1202" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1202" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1202" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1203" spans="1:5">
-      <c r="A1203" s="10">
-        <v>24</v>
-      </c>
-      <c r="B1203" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1203" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1203" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1203" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1204" spans="1:5">
-      <c r="A1204" s="10">
-        <v>25</v>
-      </c>
-      <c r="B1204" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1204" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1204" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1204" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1205" spans="1:5">
-      <c r="A1205" s="10">
-        <v>26</v>
-      </c>
-      <c r="B1205" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1205" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1205" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1205" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1206" spans="1:5">
-      <c r="A1206" s="10">
-        <v>43</v>
-      </c>
-      <c r="B1206" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1206" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1206" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1206" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:5">
-      <c r="A1207" s="10">
-        <v>27</v>
-      </c>
-      <c r="B1207" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1207" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1207" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1207" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1208" spans="1:5">
-      <c r="A1208" s="10">
-        <v>26</v>
-      </c>
-      <c r="B1208" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1208" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1208" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1208" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:5">
-      <c r="A1209" s="10">
-        <v>45</v>
-      </c>
-      <c r="B1209" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1209" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1209" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1209" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1210" spans="1:5">
-      <c r="A1210" s="10">
-        <v>28</v>
-      </c>
-      <c r="B1210" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1210" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1210" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1210" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1211" spans="1:5">
-      <c r="A1211" s="10">
-        <v>16</v>
-      </c>
-      <c r="B1211" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1211" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1211" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1211" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1212" spans="1:5">
-      <c r="A1212" s="10">
-        <v>43</v>
-      </c>
-      <c r="B1212" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1212" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1212" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1212" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1213" spans="1:5">
-      <c r="A1213" s="10">
-        <v>33</v>
-      </c>
-      <c r="B1213" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1213" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1213" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1213" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1214" spans="1:5">
-      <c r="A1214" s="10">
-        <v>32</v>
-      </c>
-      <c r="B1214" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1214" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1214" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1214" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1215" spans="1:5">
-      <c r="A1215" s="10">
-        <v>17</v>
-      </c>
-      <c r="B1215" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1215" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1215" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1215" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1216" spans="1:5">
-      <c r="A1216" s="10">
-        <v>37</v>
-      </c>
-      <c r="B1216" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1216" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1216" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1216" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1217" spans="1:5">
-      <c r="A1217" s="10">
-        <v>31</v>
-      </c>
-      <c r="B1217" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1217" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1217" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1217" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1218" spans="1:5">
-      <c r="A1218" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1218" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1218" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1218" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1218" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1219" spans="1:5">
-      <c r="A1219" s="10">
-        <v>22</v>
-      </c>
-      <c r="B1219" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1219" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1219" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1219" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1220" spans="1:5">
-      <c r="A1220" s="10">
-        <v>43</v>
-      </c>
-      <c r="B1220" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1220" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1220" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1220" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1221" spans="1:5">
-      <c r="A1221" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1221" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1221" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1221" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1221" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1222" spans="1:5">
-      <c r="A1222" s="10">
-        <v>24</v>
-      </c>
-      <c r="B1222" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1222" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1222" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1222" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1223" spans="1:5">
-      <c r="A1223" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1223" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1223" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1223" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1223" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1224" spans="1:5">
-      <c r="A1224" s="10">
-        <v>44</v>
-      </c>
-      <c r="B1224" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1224" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1224" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1224" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1225" spans="1:5">
-      <c r="A1225" s="10">
-        <v>16</v>
-      </c>
-      <c r="B1225" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1225" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1225" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1225" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1226" spans="1:5">
-      <c r="A1226" s="10">
-        <v>33</v>
-      </c>
-      <c r="B1226" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1226" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1226" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1226" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1227" spans="1:5">
-      <c r="A1227" s="10">
-        <v>23</v>
-      </c>
-      <c r="B1227" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1227" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1227" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1227" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1228" spans="1:5">
-      <c r="A1228" s="10">
-        <v>21</v>
-      </c>
-      <c r="B1228" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1228" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1228" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1228" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1229" spans="1:5">
-      <c r="A1229" s="10">
-        <v>18</v>
-      </c>
-      <c r="B1229" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1229" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1229" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1229" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1230" spans="1:5">
-      <c r="A1230" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1230" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1230" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1230" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1230" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1231" spans="1:5">
-      <c r="A1231" s="10">
-        <v>35</v>
-      </c>
-      <c r="B1231" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1231" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1231" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1231" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1232" spans="1:5">
-      <c r="A1232" s="10">
-        <v>32</v>
-      </c>
-      <c r="B1232" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1232" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1232" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1232" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:5">
-      <c r="A1233" s="10">
-        <v>27</v>
-      </c>
-      <c r="B1233" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1233" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1233" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1233" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1234" spans="1:5">
-      <c r="A1234" s="10">
-        <v>25</v>
-      </c>
-      <c r="B1234" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1234" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1234" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1234" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1235" spans="1:5">
-      <c r="A1235" s="10">
-        <v>43</v>
-      </c>
-      <c r="B1235" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1235" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1235" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1235" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1236" spans="1:5">
-      <c r="A1236" s="10">
-        <v>38</v>
-      </c>
-      <c r="B1236" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1236" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1236" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1236" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1237" spans="1:5">
-      <c r="A1237" s="10">
-        <v>18</v>
-      </c>
-      <c r="B1237" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1237" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1237" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1237" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1238" spans="1:5">
-      <c r="A1238" s="10">
-        <v>39</v>
-      </c>
-      <c r="B1238" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1238" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1238" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1238" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1239" spans="1:5">
-      <c r="A1239" s="10">
-        <v>35</v>
-      </c>
-      <c r="B1239" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1239" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1239" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1239" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1240" spans="1:5">
-      <c r="A1240" s="10">
-        <v>43</v>
-      </c>
-      <c r="B1240" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1240" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1240" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1240" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1241" spans="1:5">
-      <c r="A1241" s="10">
-        <v>39</v>
-      </c>
-      <c r="B1241" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1241" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1241" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1241" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1242" spans="1:5">
-      <c r="A1242" s="10">
-        <v>18</v>
-      </c>
-      <c r="B1242" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1242" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1242" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1242" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1243" spans="1:5">
-      <c r="A1243" s="10">
-        <v>24</v>
-      </c>
-      <c r="B1243" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1243" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1243" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1243" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1244" spans="1:5">
-      <c r="A1244" s="10">
-        <v>19</v>
-      </c>
-      <c r="B1244" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1244" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1244" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1244" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1245" spans="1:5">
-      <c r="A1245" s="10">
-        <v>23</v>
-      </c>
-      <c r="B1245" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1245" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1245" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1245" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1246" spans="1:5">
-      <c r="A1246" s="10">
-        <v>38</v>
-      </c>
-      <c r="B1246" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1246" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1246" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1246" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1247" spans="1:5">
-      <c r="A1247" s="10">
-        <v>17</v>
-      </c>
-      <c r="B1247" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1247" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1247" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1247" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1248" spans="1:5">
-      <c r="A1248" s="10">
-        <v>31</v>
-      </c>
-      <c r="B1248" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1248" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1248" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1248" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1249" spans="1:5">
-      <c r="A1249" s="10">
-        <v>17</v>
-      </c>
-      <c r="B1249" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1249" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1249" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1249" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1250" spans="1:5">
-      <c r="A1250" s="10">
-        <v>30</v>
-      </c>
-      <c r="B1250" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1250" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1250" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1250" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1251" spans="1:5">
-      <c r="A1251" s="10">
-        <v>18</v>
-      </c>
-      <c r="B1251" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1251" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1251" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1251" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:5">
-      <c r="A1252" s="10">
-        <v>32</v>
-      </c>
-      <c r="B1252" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1252" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1252" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1252" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:5">
-      <c r="A1253" s="10">
-        <v>31</v>
-      </c>
-      <c r="B1253" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1253" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1253" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1253" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:5">
-      <c r="A1254" s="10">
-        <v>21</v>
-      </c>
-      <c r="B1254" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1254" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1254" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1254" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1255" spans="1:5">
-      <c r="A1255" s="10">
-        <v>38</v>
-      </c>
-      <c r="B1255" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1255" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1255" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1255" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:5">
-      <c r="A1256" s="10">
-        <v>37</v>
-      </c>
-      <c r="B1256" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1256" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1256" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1256" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:5">
-      <c r="A1257" s="10">
-        <v>44</v>
-      </c>
-      <c r="B1257" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1257" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1257" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1257" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1258" spans="1:5">
-      <c r="A1258" s="10">
-        <v>19</v>
-      </c>
-      <c r="B1258" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1258" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1258" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1258" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1259" spans="1:5">
-      <c r="A1259" s="10">
-        <v>26</v>
-      </c>
-      <c r="B1259" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1259" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1259" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1259" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1260" spans="1:5">
-      <c r="A1260" s="10">
-        <v>31</v>
-      </c>
-      <c r="B1260" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1260" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1260" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1260" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:5">
-      <c r="A1261" s="10">
-        <v>37</v>
-      </c>
-      <c r="B1261" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1261" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1261" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1261" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1262" spans="1:5">
-      <c r="A1262" s="10">
-        <v>27</v>
-      </c>
-      <c r="B1262" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1262" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1262" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1262" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1263" spans="1:5">
-      <c r="A1263" s="10">
-        <v>37</v>
-      </c>
-      <c r="B1263" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1263" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1263" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1263" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1264" spans="1:5">
-      <c r="A1264" s="10">
-        <v>39</v>
-      </c>
-      <c r="B1264" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1264" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1264" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1264" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1265" spans="1:5">
-      <c r="A1265" s="10">
-        <v>17</v>
-      </c>
-      <c r="B1265" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1265" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1265" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1265" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1266" spans="1:5">
-      <c r="A1266" s="10">
-        <v>23</v>
-      </c>
-      <c r="B1266" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1266" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1266" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1266" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:5">
-      <c r="A1267" s="10">
-        <v>44</v>
-      </c>
-      <c r="B1267" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1267" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1267" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1267" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1268" spans="1:5">
-      <c r="A1268" s="10">
-        <v>31</v>
-      </c>
-      <c r="B1268" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1268" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1268" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1268" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1269" spans="1:5">
-      <c r="A1269" s="10">
-        <v>31</v>
-      </c>
-      <c r="B1269" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1269" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1269" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1269" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1270" spans="1:5">
-      <c r="A1270" s="10">
-        <v>44</v>
-      </c>
-      <c r="B1270" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1270" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1270" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1270" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1271" spans="1:5">
-      <c r="A1271" s="10">
-        <v>34</v>
-      </c>
-      <c r="B1271" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1271" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1271" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1271" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1272" spans="1:5">
-      <c r="A1272" s="10">
-        <v>30</v>
-      </c>
-      <c r="B1272" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1272" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1272" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1272" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1273" spans="1:5">
-      <c r="A1273" s="10">
-        <v>39</v>
-      </c>
-      <c r="B1273" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1273" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1273" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1273" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1274" spans="1:5">
-      <c r="A1274" s="10">
-        <v>36</v>
-      </c>
-      <c r="B1274" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1274" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1274" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1274" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1275" spans="1:5">
-      <c r="A1275" s="10">
-        <v>27</v>
-      </c>
-      <c r="B1275" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1275" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1275" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1275" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1276" spans="1:5">
-      <c r="A1276" s="10">
-        <v>41</v>
-      </c>
-      <c r="B1276" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1276" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1276" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1276" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:5">
-      <c r="A1277" s="10">
-        <v>33</v>
-      </c>
-      <c r="B1277" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1277" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1277" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1277" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1278" spans="1:5">
-      <c r="A1278" s="10">
-        <v>31</v>
-      </c>
-      <c r="B1278" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1278" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1278" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1278" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:5">
-      <c r="A1279" s="10">
-        <v>18</v>
-      </c>
-      <c r="B1279" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1279" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1279" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1279" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1280" spans="1:5">
-      <c r="A1280" s="10">
-        <v>26</v>
-      </c>
-      <c r="B1280" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1280" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1280" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1280" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1281" spans="1:5">
-      <c r="A1281" s="10">
-        <v>43</v>
-      </c>
-      <c r="B1281" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1281" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1281" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1281" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1282" spans="1:5">
-      <c r="A1282" s="10">
-        <v>23</v>
-      </c>
-      <c r="B1282" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1282" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1282" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1282" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1283" spans="1:5">
-      <c r="A1283" s="10">
-        <v>33</v>
-      </c>
-      <c r="B1283" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1283" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1283" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1283" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1284" spans="1:5">
-      <c r="A1284" s="10">
-        <v>26</v>
-      </c>
-      <c r="B1284" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1284" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1284" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1284" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1285" spans="1:5">
-      <c r="A1285" s="10">
-        <v>23</v>
-      </c>
-      <c r="B1285" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1285" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1285" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1285" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1286" spans="1:5">
-      <c r="A1286" s="10">
-        <v>21</v>
-      </c>
-      <c r="B1286" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1286" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1286" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1286" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1287" spans="1:5">
-      <c r="A1287" s="10">
-        <v>42</v>
-      </c>
-      <c r="B1287" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1287" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1287" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1287" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1288" spans="1:5">
-      <c r="A1288" s="10">
-        <v>28</v>
-      </c>
-      <c r="B1288" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1288" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1288" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1288" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1289" spans="1:5">
-      <c r="A1289" s="10">
-        <v>45</v>
-      </c>
-      <c r="B1289" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1289" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1289" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1289" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1290" spans="1:5">
-      <c r="A1290" s="10">
-        <v>34</v>
-      </c>
-      <c r="B1290" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1290" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1290" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1290" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1291" spans="1:5">
-      <c r="A1291" s="10">
-        <v>33</v>
-      </c>
-      <c r="B1291" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1291" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1291" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1291" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1292" spans="1:5">
-      <c r="A1292" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1292" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1292" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1292" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1292" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1293" spans="1:5">
-      <c r="A1293" s="10">
-        <v>29</v>
-      </c>
-      <c r="B1293" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1293" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1293" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1293" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1294" spans="1:5">
-      <c r="A1294" s="10">
-        <v>30</v>
-      </c>
-      <c r="B1294" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1294" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1294" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1294" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1295" spans="1:5">
-      <c r="A1295" s="10">
-        <v>35</v>
-      </c>
-      <c r="B1295" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1295" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1295" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1295" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1296" spans="1:5">
-      <c r="A1296" s="10">
-        <v>19</v>
-      </c>
-      <c r="B1296" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1296" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1296" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1296" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1297" spans="1:5">
-      <c r="A1297" s="10">
-        <v>17</v>
-      </c>
-      <c r="B1297" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1297" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1297" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1297" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1298" spans="1:5">
-      <c r="A1298" s="10">
-        <v>26</v>
-      </c>
-      <c r="B1298" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1298" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1298" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1298" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1299" spans="1:5">
-      <c r="A1299" s="10">
-        <v>39</v>
-      </c>
-      <c r="B1299" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1299" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1299" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1299" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1300" spans="1:5">
-      <c r="A1300" s="10">
-        <v>34</v>
-      </c>
-      <c r="B1300" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1300" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1300" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1300" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1301" spans="1:5">
-      <c r="A1301" s="10">
-        <v>41</v>
-      </c>
-      <c r="B1301" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1301" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1301" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1301" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1302" spans="1:5">
-      <c r="A1302" s="10">
-        <v>35</v>
-      </c>
-      <c r="B1302" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1302" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1302" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1302" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1303" spans="1:5">
-      <c r="A1303" s="10">
-        <v>18</v>
-      </c>
-      <c r="B1303" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1303" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1303" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1303" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1304" spans="1:5">
-      <c r="A1304" s="10">
-        <v>35</v>
-      </c>
-      <c r="B1304" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1304" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1304" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1304" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1305" spans="1:5">
-      <c r="A1305" s="10">
-        <v>37</v>
-      </c>
-      <c r="B1305" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1305" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1305" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1305" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1306" spans="1:5">
-      <c r="A1306" s="10">
-        <v>30</v>
-      </c>
-      <c r="B1306" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1306" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1306" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1306" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1307" spans="1:5">
-      <c r="A1307" s="10">
-        <v>39</v>
-      </c>
-      <c r="B1307" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1307" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1307" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1307" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1308" spans="1:5">
-      <c r="A1308" s="10">
-        <v>21</v>
-      </c>
-      <c r="B1308" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1308" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1308" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1308" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1309" spans="1:5">
-      <c r="A1309" s="10">
-        <v>27</v>
-      </c>
-      <c r="B1309" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1309" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1309" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1309" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1310" spans="1:5">
-      <c r="A1310" s="10">
-        <v>35</v>
-      </c>
-      <c r="B1310" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1310" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1310" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1310" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1311" spans="1:5">
-      <c r="A1311" s="10">
-        <v>24</v>
-      </c>
-      <c r="B1311" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1311" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1311" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1311" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1312" spans="1:5">
-      <c r="A1312" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1312" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1312" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1312" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1312" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1313" spans="1:5">
-      <c r="A1313" s="10">
-        <v>21</v>
-      </c>
-      <c r="B1313" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1313" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1313" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1313" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1314" spans="1:5">
-      <c r="A1314" s="10">
-        <v>28</v>
-      </c>
-      <c r="B1314" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1314" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1314" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1314" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1315" spans="1:5">
-      <c r="A1315" s="10">
-        <v>45</v>
-      </c>
-      <c r="B1315" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1315" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1315" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1315" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1316" spans="1:5">
-      <c r="A1316" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1316" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1316" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1316" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1316" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1317" spans="1:5">
-      <c r="A1317" s="10">
-        <v>19</v>
-      </c>
-      <c r="B1317" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1317" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1317" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1317" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1318" spans="1:5">
-      <c r="A1318" s="10">
-        <v>17</v>
-      </c>
-      <c r="B1318" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1318" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1318" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1318" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1319" spans="1:5">
-      <c r="A1319" s="10">
-        <v>37</v>
-      </c>
-      <c r="B1319" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1319" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1319" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1319" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1320" spans="1:5">
-      <c r="A1320" s="10">
-        <v>43</v>
-      </c>
-      <c r="B1320" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1320" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1320" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1320" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1321" spans="1:5">
-      <c r="A1321" s="10">
-        <v>25</v>
-      </c>
-      <c r="B1321" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1321" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1321" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1321" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1322" spans="1:5">
-      <c r="A1322" s="10">
-        <v>25</v>
-      </c>
-      <c r="B1322" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1322" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1322" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1322" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1323" spans="1:5">
-      <c r="A1323" s="10">
-        <v>32</v>
-      </c>
-      <c r="B1323" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1323" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1323" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1323" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1324" spans="1:5">
-      <c r="A1324" s="10">
-        <v>29</v>
-      </c>
-      <c r="B1324" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1324" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1324" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1324" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1325" spans="1:5">
-      <c r="A1325" s="10">
-        <v>26</v>
-      </c>
-      <c r="B1325" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1325" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1325" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1325" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1326" spans="1:5">
-      <c r="A1326" s="10">
-        <v>23</v>
-      </c>
-      <c r="B1326" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1326" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1326" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1326" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1327" spans="1:5">
-      <c r="A1327" s="10">
-        <v>24</v>
-      </c>
-      <c r="B1327" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1327" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1327" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1327" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1328" spans="1:5">
-      <c r="A1328" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1328" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1328" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1328" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1328" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1329" spans="1:5">
-      <c r="A1329" s="10">
-        <v>26</v>
-      </c>
-      <c r="B1329" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1329" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1329" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1329" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1330" spans="1:5">
-      <c r="A1330" s="10">
-        <v>31</v>
-      </c>
-      <c r="B1330" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1330" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1330" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1330" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1331" spans="1:5">
-      <c r="A1331" s="10">
-        <v>43</v>
-      </c>
-      <c r="B1331" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1331" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1331" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1331" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1332" spans="1:5">
-      <c r="A1332" s="10">
-        <v>20</v>
-      </c>
-      <c r="B1332" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1332" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1332" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1332" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1333" spans="1:5">
-      <c r="A1333" s="10">
-        <v>21</v>
-      </c>
-      <c r="B1333" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1333" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1333" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1333" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1334" spans="1:5">
-      <c r="A1334" s="10">
-        <v>28</v>
-      </c>
-      <c r="B1334" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1334" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1334" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1334" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1335" spans="1:5">
-      <c r="A1335" s="10">
-        <v>27</v>
-      </c>
-      <c r="B1335" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1335" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1335" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1335" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1336" spans="1:5">
-      <c r="A1336" s="10">
-        <v>22</v>
-      </c>
-      <c r="B1336" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1336" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1336" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1336" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1337" spans="1:5">
-      <c r="A1337" s="10">
-        <v>24</v>
-      </c>
-      <c r="B1337" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1337" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1337" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1337" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1338" spans="1:5">
-      <c r="A1338" s="10">
-        <v>23</v>
-      </c>
-      <c r="B1338" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1338" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1338" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1338" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1339" spans="1:5">
-      <c r="A1339" s="10">
-        <v>32</v>
-      </c>
-      <c r="B1339" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1339" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1339" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1339" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1340" spans="1:5">
-      <c r="A1340" s="10">
-        <v>41</v>
-      </c>
-      <c r="B1340" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1340" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1340" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1340" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1341" spans="1:5">
-      <c r="A1341" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1341" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1341" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1341" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1341" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1342" spans="1:5">
-      <c r="A1342" s="10">
-        <v>16</v>
-      </c>
-      <c r="B1342" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1342" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1342" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1342" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1343" spans="1:5">
-      <c r="A1343" s="10">
-        <v>19</v>
-      </c>
-      <c r="B1343" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1343" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1343" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1343" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1344" spans="1:5">
-      <c r="A1344" s="10">
-        <v>43</v>
-      </c>
-      <c r="B1344" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1344" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1344" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1344" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1345" spans="1:5">
-      <c r="A1345" s="10">
-        <v>19</v>
-      </c>
-      <c r="B1345" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1345" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1345" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1345" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1346" spans="1:5">
-      <c r="A1346" s="10">
-        <v>20</v>
-      </c>
-      <c r="B1346" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1346" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1346" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1346" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1347" spans="1:5">
-      <c r="A1347" s="10">
-        <v>33</v>
-      </c>
-      <c r="B1347" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1347" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1347" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1347" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1348" spans="1:5">
-      <c r="A1348" s="10">
-        <v>22</v>
-      </c>
-      <c r="B1348" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1348" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1348" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1348" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1349" spans="1:5">
-      <c r="A1349" s="10">
-        <v>30</v>
-      </c>
-      <c r="B1349" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1349" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1349" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1349" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1350" spans="1:5">
-      <c r="A1350" s="10">
-        <v>27</v>
-      </c>
-      <c r="B1350" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1350" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1350" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1350" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1351" spans="1:5">
-      <c r="A1351" s="10">
-        <v>15</v>
-      </c>
-      <c r="B1351" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1351" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1351" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1351" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1352" spans="1:5">
-      <c r="A1352" s="10">
-        <v>36</v>
-      </c>
-      <c r="B1352" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1352" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1352" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1352" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1353" spans="1:5">
-      <c r="A1353" s="10">
-        <v>34</v>
-      </c>
-      <c r="B1353" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1353" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1353" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1353" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1354" spans="1:5">
-      <c r="A1354" s="10">
-        <v>31</v>
-      </c>
-      <c r="B1354" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1354" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1354" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1354" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1355" spans="1:5">
-      <c r="A1355" s="10">
-        <v>45</v>
-      </c>
-      <c r="B1355" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1355" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1355" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1355" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1356" spans="1:5">
-      <c r="A1356" s="10">
-        <v>21</v>
-      </c>
-      <c r="B1356" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1356" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1356" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1356" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1357" spans="1:5">
-      <c r="A1357" s="10">
-        <v>39</v>
-      </c>
-      <c r="B1357" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1357" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1357" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1357" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1358" spans="1:5">
-      <c r="A1358" s="10">
-        <v>27</v>
-      </c>
-      <c r="B1358" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1358" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1358" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1358" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1359" spans="1:5">
-      <c r="A1359" s="10">
-        <v>18</v>
-      </c>
-      <c r="B1359" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1359" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1359" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1359" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1360" spans="1:5">
-      <c r="A1360" s="10">
-        <v>18</v>
-      </c>
-      <c r="B1360" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1360" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1360" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1360" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1361" spans="1:5">
-      <c r="A1361" s="10">
-        <v>20</v>
-      </c>
-      <c r="B1361" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1361" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1361" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1361" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1362" spans="1:5">
-      <c r="A1362" s="10">
-        <v>42</v>
-      </c>
-      <c r="B1362" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1362" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1362" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1362" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1363" spans="1:5">
-      <c r="A1363" s="10">
-        <v>45</v>
-      </c>
-      <c r="B1363" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1363" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1363" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1363" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1364" spans="1:5">
-      <c r="A1364" s="10">
-        <v>33</v>
-      </c>
-      <c r="B1364" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1364" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1364" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1364" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1365" spans="1:5">
-      <c r="A1365" s="10">
-        <v>43</v>
-      </c>
-      <c r="B1365" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1365" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1365" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1365" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1366" spans="1:5">
-      <c r="A1366" s="10">
-        <v>26</v>
-      </c>
-      <c r="B1366" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1366" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1366" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1366" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1367" spans="1:5">
-      <c r="A1367" s="10">
-        <v>36</v>
-      </c>
-      <c r="B1367" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1367" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1367" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1367" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1368" spans="1:5">
-      <c r="A1368" s="10">
-        <v>21</v>
-      </c>
-      <c r="B1368" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1368" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1368" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1368" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1369" spans="1:5">
-      <c r="A1369" s="10">
-        <v>41</v>
-      </c>
-      <c r="B1369" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1369" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1369" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1369" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1370" spans="1:5">
-      <c r="A1370" s="10">
-        <v>24</v>
-      </c>
-      <c r="B1370" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1370" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1370" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1370" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1371" spans="1:5">
-      <c r="A1371" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1371" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1371" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1371" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1371" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1372" spans="1:5">
-      <c r="A1372" s="10">
-        <v>33</v>
-      </c>
-      <c r="B1372" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1372" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1372" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1372" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1373" spans="1:5">
-      <c r="A1373" s="10">
-        <v>21</v>
-      </c>
-      <c r="B1373" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1373" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1373" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1373" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1374" spans="1:5">
-      <c r="A1374" s="10">
-        <v>44</v>
-      </c>
-      <c r="B1374" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1374" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1374" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1374" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1375" spans="1:5">
-      <c r="A1375" s="10">
-        <v>17</v>
-      </c>
-      <c r="B1375" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1375" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1375" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1375" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1376" spans="1:5">
-      <c r="A1376" s="10">
-        <v>27</v>
-      </c>
-      <c r="B1376" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1376" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1376" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1376" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1377" spans="1:5">
-      <c r="A1377" s="10">
-        <v>27</v>
-      </c>
-      <c r="B1377" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1377" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1377" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1377" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1378" spans="1:5">
-      <c r="A1378" s="10">
-        <v>32</v>
-      </c>
-      <c r="B1378" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1378" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1378" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1378" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1379" spans="1:5">
-      <c r="A1379" s="10">
-        <v>42</v>
-      </c>
-      <c r="B1379" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1379" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1379" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1379" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1380" spans="1:5">
-      <c r="A1380" s="10">
-        <v>44</v>
-      </c>
-      <c r="B1380" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1380" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1380" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1380" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1381" spans="1:5">
-      <c r="A1381" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1381" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1381" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1381" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1381" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1382" spans="1:5">
-      <c r="A1382" s="10">
-        <v>34</v>
-      </c>
-      <c r="B1382" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1382" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1382" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1382" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1383" spans="1:5">
-      <c r="A1383" s="10">
-        <v>42</v>
-      </c>
-      <c r="B1383" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1383" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1383" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1383" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1384" spans="1:5">
-      <c r="A1384" s="10">
-        <v>22</v>
-      </c>
-      <c r="B1384" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1384" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1384" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1384" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1385" spans="1:5">
-      <c r="A1385" s="10">
-        <v>43</v>
-      </c>
-      <c r="B1385" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1385" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1385" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1385" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1386" spans="1:5">
-      <c r="A1386" s="10">
-        <v>45</v>
-      </c>
-      <c r="B1386" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1386" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1386" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1386" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1387" spans="1:5">
-      <c r="A1387" s="10">
-        <v>23</v>
-      </c>
-      <c r="B1387" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1387" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1387" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1387" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1388" spans="1:5">
-      <c r="A1388" s="10">
-        <v>21</v>
-      </c>
-      <c r="B1388" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1388" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1388" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1388" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1389" spans="1:5">
-      <c r="A1389" s="10">
-        <v>15</v>
-      </c>
-      <c r="B1389" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1389" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1389" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1389" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1390" spans="1:5">
-      <c r="A1390" s="10">
-        <v>17</v>
-      </c>
-      <c r="B1390" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1390" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1390" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1390" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1391" spans="1:5">
-      <c r="A1391" s="10">
-        <v>27</v>
-      </c>
-      <c r="B1391" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1391" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1391" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1391" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1392" spans="1:5">
-      <c r="A1392" s="10">
-        <v>42</v>
-      </c>
-      <c r="B1392" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1392" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1392" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1392" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1393" spans="1:5">
-      <c r="A1393" s="10">
-        <v>44</v>
-      </c>
-      <c r="B1393" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1393" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1393" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1393" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1394" spans="1:5">
-      <c r="A1394" s="10">
-        <v>39</v>
-      </c>
-      <c r="B1394" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1394" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1394" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1394" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1395" spans="1:5">
-      <c r="A1395" s="10">
-        <v>45</v>
-      </c>
-      <c r="B1395" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1395" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1395" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1395" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1396" spans="1:5">
-      <c r="A1396" s="10">
-        <v>42</v>
-      </c>
-      <c r="B1396" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1396" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1396" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1396" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1397" spans="1:5">
-      <c r="A1397" s="10">
-        <v>31</v>
-      </c>
-      <c r="B1397" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1397" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1397" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1397" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1398" spans="1:5">
-      <c r="A1398" s="10">
-        <v>39</v>
-      </c>
-      <c r="B1398" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1398" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1398" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1398" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1399" spans="1:5">
-      <c r="A1399" s="10">
-        <v>38</v>
-      </c>
-      <c r="B1399" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1399" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1399" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1399" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1400" spans="1:5">
-      <c r="A1400" s="10">
-        <v>15</v>
-      </c>
-      <c r="B1400" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1400" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1400" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1400" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1401" spans="1:5">
-      <c r="A1401" s="10">
-        <v>20</v>
-      </c>
-      <c r="B1401" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1401" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1401" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1401" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1402" spans="1:5">
-      <c r="A1402" s="10">
-        <v>35</v>
-      </c>
-      <c r="B1402" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1402" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1402" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1402" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1403" spans="1:5">
-      <c r="A1403" s="10">
-        <v>20</v>
-      </c>
-      <c r="B1403" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1403" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1403" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1403" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1404" spans="1:5">
-      <c r="A1404" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1404" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1404" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1404" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1404" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1405" spans="1:5">
-      <c r="A1405" s="10">
-        <v>26</v>
-      </c>
-      <c r="B1405" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1405" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1405" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1405" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1406" spans="1:5">
-      <c r="A1406" s="10">
-        <v>27</v>
-      </c>
-      <c r="B1406" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1406" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1406" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1406" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1407" spans="1:5">
-      <c r="A1407" s="10">
-        <v>27</v>
-      </c>
-      <c r="B1407" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1407" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1407" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1407" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1408" spans="1:5">
-      <c r="A1408" s="10">
-        <v>43</v>
-      </c>
-      <c r="B1408" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1408" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1408" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1408" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1409" spans="1:5">
-      <c r="A1409" s="10">
-        <v>29</v>
-      </c>
-      <c r="B1409" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1409" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1409" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1409" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1410" spans="1:5">
-      <c r="A1410" s="10">
-        <v>35</v>
-      </c>
-      <c r="B1410" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1410" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1410" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1410" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1411" spans="1:5">
-      <c r="A1411" s="10">
-        <v>30</v>
-      </c>
-      <c r="B1411" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1411" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1411" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1411" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1412" spans="1:5">
-      <c r="A1412" s="10">
-        <v>36</v>
-      </c>
-      <c r="B1412" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1412" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1412" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1412" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1413" spans="1:5">
-      <c r="A1413" s="10">
-        <v>35</v>
-      </c>
-      <c r="B1413" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1413" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1413" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1413" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1414" spans="1:5">
-      <c r="A1414" s="10">
-        <v>25</v>
-      </c>
-      <c r="B1414" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1414" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1414" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1414" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1415" spans="1:5">
-      <c r="A1415" s="10">
-        <v>42</v>
-      </c>
-      <c r="B1415" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1415" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1415" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1415" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1416" spans="1:5">
-      <c r="A1416" s="10">
-        <v>19</v>
-      </c>
-      <c r="B1416" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1416" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1416" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1416" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1417" spans="1:5">
-      <c r="A1417" s="10">
-        <v>18</v>
-      </c>
-      <c r="B1417" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1417" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1417" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1417" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1418" spans="1:5">
-      <c r="A1418" s="10">
-        <v>17</v>
-      </c>
-      <c r="B1418" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1418" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1418" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1418" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1419" spans="1:5">
-      <c r="A1419" s="10">
-        <v>33</v>
-      </c>
-      <c r="B1419" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1419" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1419" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1419" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1420" spans="1:5">
-      <c r="A1420" s="10">
-        <v>34</v>
-      </c>
-      <c r="B1420" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1420" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1420" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1420" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1421" spans="1:5">
-      <c r="A1421" s="10">
-        <v>39</v>
-      </c>
-      <c r="B1421" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1421" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1421" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1421" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1422" spans="1:5">
-      <c r="A1422" s="10">
-        <v>32</v>
-      </c>
-      <c r="B1422" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1422" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1422" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1422" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1423" spans="1:5">
-      <c r="A1423" s="10">
-        <v>29</v>
-      </c>
-      <c r="B1423" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1423" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1423" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1423" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1424" spans="1:5">
-      <c r="A1424" s="10">
-        <v>23</v>
-      </c>
-      <c r="B1424" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1424" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1424" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1424" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1425" spans="1:5">
-      <c r="A1425" s="10">
-        <v>31</v>
-      </c>
-      <c r="B1425" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1425" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1425" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1425" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1426" spans="1:5">
-      <c r="A1426" s="10">
-        <v>28</v>
-      </c>
-      <c r="B1426" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1426" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1426" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1426" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1427" spans="1:5">
-      <c r="A1427" s="10">
-        <v>29</v>
-      </c>
-      <c r="B1427" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1427" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1427" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1427" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1428" spans="1:5">
-      <c r="A1428" s="10">
-        <v>45</v>
-      </c>
-      <c r="B1428" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1428" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1428" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1428" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1429" spans="1:5">
-      <c r="A1429" s="10">
-        <v>15</v>
-      </c>
-      <c r="B1429" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1429" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1429" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1429" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1430" spans="1:5">
-      <c r="A1430" s="10">
-        <v>35</v>
-      </c>
-      <c r="B1430" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1430" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1430" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1430" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1431" spans="1:5">
-      <c r="A1431" s="10">
-        <v>36</v>
-      </c>
-      <c r="B1431" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1431" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1431" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1431" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1432" spans="1:5">
-      <c r="A1432" s="10">
-        <v>36</v>
-      </c>
-      <c r="B1432" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1432" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1432" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1432" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1433" spans="1:5">
-      <c r="A1433" s="10">
-        <v>17</v>
-      </c>
-      <c r="B1433" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1433" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1433" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1433" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1434" spans="1:5">
-      <c r="A1434" s="10">
-        <v>30</v>
-      </c>
-      <c r="B1434" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1434" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1434" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1434" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1435" spans="1:5">
-      <c r="A1435" s="10">
-        <v>37</v>
-      </c>
-      <c r="B1435" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1435" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1435" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1435" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1436" spans="1:5">
-      <c r="A1436" s="10">
-        <v>39</v>
-      </c>
-      <c r="B1436" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1436" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1436" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1436" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1437" spans="1:5">
-      <c r="A1437" s="10">
-        <v>25</v>
-      </c>
-      <c r="B1437" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1437" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1437" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1437" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1438" spans="1:5">
-      <c r="A1438" s="10">
-        <v>26</v>
-      </c>
-      <c r="B1438" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1438" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1438" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1438" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1439" spans="1:5">
-      <c r="A1439" s="10">
-        <v>24</v>
-      </c>
-      <c r="B1439" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1439" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1439" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1439" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1440" spans="1:5">
-      <c r="A1440" s="10">
-        <v>30</v>
-      </c>
-      <c r="B1440" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1440" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1440" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1440" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1441" spans="1:5">
-      <c r="A1441" s="10">
-        <v>22</v>
-      </c>
-      <c r="B1441" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1441" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1441" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1441" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1442" spans="1:5">
-      <c r="A1442" s="10">
-        <v>20</v>
-      </c>
-      <c r="B1442" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1442" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1442" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1442" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1443" spans="1:5">
-      <c r="A1443" s="10">
-        <v>26</v>
-      </c>
-      <c r="B1443" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1443" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1443" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1443" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1444" spans="1:5">
-      <c r="A1444" s="10">
-        <v>38</v>
-      </c>
-      <c r="B1444" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1444" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1444" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1444" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1445" spans="1:5">
-      <c r="A1445" s="10">
-        <v>42</v>
-      </c>
-      <c r="B1445" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1445" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1445" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1445" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1446" spans="1:5">
-      <c r="A1446" s="10">
-        <v>35</v>
-      </c>
-      <c r="B1446" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1446" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1446" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1446" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1447" spans="1:5">
-      <c r="A1447" s="10">
-        <v>22</v>
-      </c>
-      <c r="B1447" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1447" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1447" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1447" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1448" spans="1:5">
-      <c r="A1448" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1448" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1448" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1448" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1448" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1449" spans="1:5">
-      <c r="A1449" s="10">
-        <v>42</v>
-      </c>
-      <c r="B1449" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1449" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1449" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1449" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1450" spans="1:5">
-      <c r="A1450" s="10">
-        <v>18</v>
-      </c>
-      <c r="B1450" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1450" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1450" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1450" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1451" spans="1:5">
-      <c r="A1451" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1451" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1451" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1451" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1451" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1452" spans="1:5">
-      <c r="A1452" s="10">
-        <v>22</v>
-      </c>
-      <c r="B1452" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1452" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1452" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1452" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1453" spans="1:5">
-      <c r="A1453" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1453" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1453" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1453" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1453" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1454" spans="1:5">
-      <c r="A1454" s="10">
-        <v>42</v>
-      </c>
-      <c r="B1454" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1454" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1454" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1454" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1455" spans="1:5">
-      <c r="A1455" s="10">
-        <v>32</v>
-      </c>
-      <c r="B1455" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1455" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1455" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1455" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1456" spans="1:5">
-      <c r="A1456" s="10">
-        <v>42</v>
-      </c>
-      <c r="B1456" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1456" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1456" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1456" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1457" spans="1:5">
-      <c r="A1457" s="10">
-        <v>42</v>
-      </c>
-      <c r="B1457" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1457" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1457" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1457" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1458" spans="1:5">
-      <c r="A1458" s="10">
-        <v>19</v>
-      </c>
-      <c r="B1458" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1458" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1458" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1458" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1459" spans="1:5">
-      <c r="A1459" s="10">
-        <v>23</v>
-      </c>
-      <c r="B1459" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1459" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1459" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1459" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1460" spans="1:5">
-      <c r="A1460" s="10">
-        <v>18</v>
-      </c>
-      <c r="B1460" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1460" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1460" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1460" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1461" spans="1:5">
-      <c r="A1461" s="10">
-        <v>41</v>
-      </c>
-      <c r="B1461" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1461" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1461" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1461" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1462" spans="1:5">
-      <c r="A1462" s="10">
-        <v>36</v>
-      </c>
-      <c r="B1462" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1462" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1462" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1462" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1463" spans="1:5">
-      <c r="A1463" s="10">
-        <v>45</v>
-      </c>
-      <c r="B1463" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1463" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1463" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1463" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1464" spans="1:5">
-      <c r="A1464" s="10">
-        <v>31</v>
-      </c>
-      <c r="B1464" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1464" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1464" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1464" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1465" spans="1:5">
-      <c r="A1465" s="10">
-        <v>23</v>
-      </c>
-      <c r="B1465" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1465" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1465" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1465" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1466" spans="1:5">
-      <c r="A1466" s="10">
-        <v>15</v>
-      </c>
-      <c r="B1466" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1466" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1466" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1466" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1467" spans="1:5">
-      <c r="A1467" s="10">
-        <v>35</v>
-      </c>
-      <c r="B1467" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1467" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1467" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1467" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1468" spans="1:5">
-      <c r="A1468" s="10">
-        <v>34</v>
-      </c>
-      <c r="B1468" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1468" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1468" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1468" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1469" spans="1:5">
-      <c r="A1469" s="10">
-        <v>27</v>
-      </c>
-      <c r="B1469" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1469" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1469" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1469" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1470" spans="1:5">
-      <c r="A1470" s="10">
-        <v>42</v>
-      </c>
-      <c r="B1470" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1470" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1470" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1470" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1471" spans="1:5">
-      <c r="A1471" s="10">
-        <v>30</v>
-      </c>
-      <c r="B1471" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1471" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1471" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1471" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1472" spans="1:5">
-      <c r="A1472" s="10">
-        <v>43</v>
-      </c>
-      <c r="B1472" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1472" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1472" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1472" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1473" spans="1:5">
-      <c r="A1473" s="10">
-        <v>27</v>
-      </c>
-      <c r="B1473" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1473" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1473" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1473" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1474" spans="1:5">
-      <c r="A1474" s="10">
-        <v>28</v>
-      </c>
-      <c r="B1474" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1474" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1474" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1474" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1475" spans="1:5">
-      <c r="A1475" s="10">
-        <v>17</v>
-      </c>
-      <c r="B1475" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1475" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1475" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1475" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1476" spans="1:5">
-      <c r="A1476" s="10">
-        <v>43</v>
-      </c>
-      <c r="B1476" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1476" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1476" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1476" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1477" spans="1:5">
-      <c r="A1477" s="10">
-        <v>20</v>
-      </c>
-      <c r="B1477" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1477" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1477" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1477" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1478" spans="1:5">
-      <c r="A1478" s="10">
-        <v>32</v>
-      </c>
-      <c r="B1478" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1478" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1478" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1478" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1479" spans="1:5">
-      <c r="A1479" s="10">
-        <v>33</v>
-      </c>
-      <c r="B1479" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1479" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1479" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1479" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1480" spans="1:5">
-      <c r="A1480" s="10">
-        <v>19</v>
-      </c>
-      <c r="B1480" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1480" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1480" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1480" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1481" spans="1:5">
-      <c r="A1481" s="10">
-        <v>29</v>
-      </c>
-      <c r="B1481" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1481" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1481" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1481" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1482" spans="1:5">
-      <c r="A1482" s="10">
-        <v>39</v>
-      </c>
-      <c r="B1482" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1482" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1482" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1482" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1483" spans="1:5">
-      <c r="A1483" s="10">
-        <v>16</v>
-      </c>
-      <c r="B1483" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1483" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1483" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1483" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1484" spans="1:5">
-      <c r="A1484" s="10">
-        <v>24</v>
-      </c>
-      <c r="B1484" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1484" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1484" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1484" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1485" spans="1:5">
-      <c r="A1485" s="10">
-        <v>38</v>
-      </c>
-      <c r="B1485" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1485" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1485" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1485" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1486" spans="1:5">
-      <c r="A1486" s="10">
-        <v>44</v>
-      </c>
-      <c r="B1486" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1486" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1486" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1486" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1487" spans="1:5">
-      <c r="A1487" s="10">
-        <v>32</v>
-      </c>
-      <c r="B1487" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1487" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1487" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1487" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1488" spans="1:5">
-      <c r="A1488" s="10">
-        <v>41</v>
-      </c>
-      <c r="B1488" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1488" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1488" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1488" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1489" spans="1:5">
-      <c r="A1489" s="10">
-        <v>27</v>
-      </c>
-      <c r="B1489" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1489" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1489" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1489" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1490" spans="1:5">
-      <c r="A1490" s="10">
-        <v>19</v>
-      </c>
-      <c r="B1490" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1490" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1490" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1490" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1491" spans="1:5">
-      <c r="A1491" s="10">
-        <v>37</v>
-      </c>
-      <c r="B1491" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1491" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1491" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1491" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1492" spans="1:5">
-      <c r="A1492" s="10">
-        <v>38</v>
-      </c>
-      <c r="B1492" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1492" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1492" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1492" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1493" spans="1:5">
-      <c r="A1493" s="10">
-        <v>15</v>
-      </c>
-      <c r="B1493" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1493" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1493" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1493" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1494" spans="1:5">
-      <c r="A1494" s="10">
-        <v>36</v>
-      </c>
-      <c r="B1494" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1494" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1494" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1494" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1495" spans="1:5">
-      <c r="A1495" s="10">
-        <v>15</v>
-      </c>
-      <c r="B1495" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1495" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1495" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1495" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1496" spans="1:5">
-      <c r="A1496" s="10">
-        <v>32</v>
-      </c>
-      <c r="B1496" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1496" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1496" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1496" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1497" spans="1:5">
-      <c r="A1497" s="10">
-        <v>29</v>
-      </c>
-      <c r="B1497" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1497" s="10">
-        <v>0</v>
-      </c>
-      <c r="D1497" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1497" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1498" spans="1:5">
-      <c r="A1498" s="10">
-        <v>31</v>
-      </c>
-      <c r="B1498" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1498" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1498" s="10">
-        <v>1</v>
-      </c>
-      <c r="E1498" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1499" spans="1:5">
-      <c r="A1499" s="10">
-        <v>25</v>
-      </c>
-      <c r="B1499" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1499" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1499" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1499" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1500" spans="1:5">
-      <c r="A1500" s="10">
-        <v>35</v>
-      </c>
-      <c r="B1500" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1500" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1500" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1500" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1501" spans="1:5">
-      <c r="A1501" s="10">
-        <v>40</v>
-      </c>
-      <c r="B1501" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1501" s="10">
-        <v>1</v>
-      </c>
-      <c r="D1501" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1501" s="10">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E1501" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>